--- a/results/gru/dilemma/confidence/lossy/sum_scores.xlsx
+++ b/results/gru/dilemma/confidence/lossy/sum_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="254">
   <si>
     <t>negative</t>
   </si>
@@ -43,24 +43,24 @@
     <t>name</t>
   </si>
   <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>drugs</t>
   </si>
   <si>
-    <t>illegal</t>
+    <t>news</t>
   </si>
   <si>
     <t>scary</t>
   </si>
   <si>
-    <t>news</t>
+    <t>fake</t>
   </si>
   <si>
     <t>software</t>
   </si>
   <si>
-    <t>fake</t>
-  </si>
-  <si>
     <t>two</t>
   </si>
   <si>
@@ -70,37 +70,58 @@
     <t>times</t>
   </si>
   <si>
+    <t>faster</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>edward</t>
+  </si>
+  <si>
+    <t>six</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>customers</t>
   </si>
   <si>
-    <t>edward</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>faster</t>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>mit</t>
   </si>
   <si>
     <t>[UNK]</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>spreads</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>slight</t>
   </si>
   <si>
     <t>tu</t>
   </si>
   <si>
-    <t>six</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>bad</t>
+    <t>study</t>
   </si>
   <si>
     <t>black</t>
@@ -109,937 +130,649 @@
     <t>crazy</t>
   </si>
   <si>
-    <t>truth</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>slight</t>
+    <t>phone</t>
   </si>
   <si>
     <t>imp</t>
   </si>
   <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>gradual</t>
+  </si>
+  <si>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
     <t>drama</t>
   </si>
   <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>gradual</t>
+    <t>holy</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>industries</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>according</t>
+  </si>
+  <si>
+    <t>travels</t>
+  </si>
+  <si>
+    <t>fucked</t>
   </si>
   <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>industries</t>
-  </si>
-  <si>
     <t>users</t>
   </si>
   <si>
-    <t>twitter</t>
-  </si>
-  <si>
-    <t>mit</t>
-  </si>
-  <si>
-    <t>study</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>holy</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>spreads</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>weird</t>
+    <t>true</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>threat</t>
+  </si>
+  <si>
+    <t>existent</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>mad</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>late</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>film</t>
+  </si>
+  <si>
+    <t>shocked</t>
   </si>
   <si>
     <t>serious</t>
   </si>
   <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>inc</t>
+  </si>
+  <si>
+    <t>civil</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>experts</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>internet</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>ability</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>conspiracy</t>
+  </si>
+  <si>
+    <t>rabbit</t>
+  </si>
+  <si>
+    <t>silicon</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>ago</t>
+  </si>
+  <si>
+    <t>laser</t>
+  </si>
+  <si>
+    <t>apps</t>
+  </si>
+  <si>
+    <t>suicide</t>
+  </si>
+  <si>
+    <t>past</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>hole</t>
+  </si>
+  <si>
+    <t>mirror</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>long</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>dumb</t>
+    <t>notification</t>
+  </si>
+  <si>
+    <t>th</t>
+  </si>
+  <si>
+    <t>con</t>
+  </si>
+  <si>
+    <t>per</t>
+  </si>
+  <si>
+    <t>ignore</t>
+  </si>
+  <si>
+    <t>shows</t>
+  </si>
+  <si>
+    <t>bjp</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>doc</t>
+  </si>
+  <si>
+    <t>cu</t>
+  </si>
+  <si>
+    <t>consequences</t>
+  </si>
+  <si>
+    <t>snap</t>
+  </si>
+  <si>
+    <t>censorship</t>
+  </si>
+  <si>
+    <t>remember</t>
+  </si>
+  <si>
+    <t>must</t>
+  </si>
+  <si>
+    <t>al</t>
+  </si>
+  <si>
+    <t>imagine</t>
+  </si>
+  <si>
+    <t>‘</t>
+  </si>
+  <si>
+    <t>—</t>
+  </si>
+  <si>
+    <t>awareness</t>
+  </si>
+  <si>
+    <t>billion</t>
+  </si>
+  <si>
+    <t>gets</t>
+  </si>
+  <si>
+    <t>addict</t>
+  </si>
+  <si>
+    <t>addiction</t>
+  </si>
+  <si>
+    <t>knowing</t>
+  </si>
+  <si>
+    <t>bring</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>refer</t>
+  </si>
+  <si>
+    <t>etc</t>
+  </si>
+  <si>
+    <t>stomach</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>ago</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>change</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>film</t>
-  </si>
-  <si>
-    <t>shocked</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>th</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>con</t>
+    <t>chance</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>college</t>
+  </si>
+  <si>
+    <t>bye</t>
+  </si>
+  <si>
+    <t>scrolling</t>
+  </si>
+  <si>
+    <t>mani</t>
   </si>
   <si>
     <t>’</t>
   </si>
   <si>
-    <t>addict</t>
-  </si>
-  <si>
-    <t>civil</t>
-  </si>
-  <si>
-    <t>ability</t>
-  </si>
-  <si>
-    <t>past</t>
-  </si>
-  <si>
-    <t>hours</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>late</t>
-  </si>
-  <si>
-    <t>hole</t>
+    <t>behaviour</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>vincent</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>et</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>hacked</t>
+  </si>
+  <si>
+    <t>hacker</t>
+  </si>
+  <si>
+    <t>confusing</t>
+  </si>
+  <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>irony</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>propaganda</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>quote</t>
+  </si>
+  <si>
+    <t>manipulation</t>
+  </si>
+  <si>
+    <t>government</t>
+  </si>
+  <si>
+    <t>ni</t>
+  </si>
+  <si>
+    <t>psychology</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>ugly</t>
+  </si>
+  <si>
+    <t>psychological</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>saw</t>
+  </si>
+  <si>
+    <t>bloody</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>opening</t>
+  </si>
+  <si>
+    <t>definitely</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>dakota</t>
+  </si>
+  <si>
+    <t>dramatic</t>
+  </si>
+  <si>
+    <t>episode</t>
+  </si>
+  <si>
+    <t>crying</t>
+  </si>
+  <si>
+    <t>around</t>
+  </si>
+  <si>
+    <t>portrayed</t>
+  </si>
+  <si>
+    <t>matrix</t>
+  </si>
+  <si>
+    <t>worrying</t>
+  </si>
+  <si>
+    <t>pali</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>dam</t>
+  </si>
+  <si>
+    <t>surveillance</t>
+  </si>
+  <si>
+    <t>algorithms</t>
+  </si>
+  <si>
+    <t>art</t>
+  </si>
+  <si>
+    <t>created</t>
   </si>
   <si>
     <t>insane</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>facebook</t>
-  </si>
-  <si>
-    <t>silicon</t>
-  </si>
-  <si>
-    <t>conspiracy</t>
-  </si>
-  <si>
-    <t>suicide</t>
-  </si>
-  <si>
-    <t>mirror</t>
-  </si>
-  <si>
-    <t>refer</t>
-  </si>
-  <si>
-    <t>—</t>
-  </si>
-  <si>
-    <t>inc</t>
-  </si>
-  <si>
-    <t>propaganda</t>
-  </si>
-  <si>
-    <t>consequences</t>
-  </si>
-  <si>
-    <t>say</t>
-  </si>
-  <si>
-    <t>travels</t>
-  </si>
-  <si>
-    <t>perception</t>
-  </si>
-  <si>
-    <t>irony</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>existent</t>
-  </si>
-  <si>
-    <t>youtube</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>knowing</t>
-  </si>
-  <si>
-    <t>addiction</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>mad</t>
-  </si>
-  <si>
-    <t>trump</t>
-  </si>
-  <si>
-    <t>theories</t>
-  </si>
-  <si>
-    <t>explains</t>
-  </si>
-  <si>
-    <t>google</t>
-  </si>
-  <si>
-    <t>random</t>
-  </si>
-  <si>
-    <t>confusing</t>
-  </si>
-  <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>bro</t>
+    <t>techno</t>
+  </si>
+  <si>
+    <t>revelations</t>
+  </si>
+  <si>
+    <t>mere</t>
+  </si>
+  <si>
+    <t>tb</t>
+  </si>
+  <si>
+    <t>yesterday</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>dr</t>
+  </si>
+  <si>
+    <t>yo</t>
+  </si>
+  <si>
+    <t>blame</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>sides</t>
   </si>
   <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>dea</t>
-  </si>
-  <si>
-    <t>apps</t>
-  </si>
-  <si>
-    <t>humans</t>
-  </si>
-  <si>
-    <t>psychology</t>
-  </si>
-  <si>
-    <t>internet</t>
-  </si>
-  <si>
-    <t>rabbit</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>different</t>
-  </si>
-  <si>
-    <t>notification</t>
-  </si>
-  <si>
-    <t>chilling</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>agile</t>
-  </si>
-  <si>
-    <t>fall</t>
-  </si>
-  <si>
-    <t>per</t>
-  </si>
-  <si>
-    <t>ignore</t>
-  </si>
-  <si>
-    <t>‘</t>
-  </si>
-  <si>
-    <t>snap</t>
-  </si>
-  <si>
-    <t>censorship</t>
-  </si>
-  <si>
-    <t>racist</t>
-  </si>
-  <si>
-    <t>al</t>
-  </si>
-  <si>
-    <t>awareness</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>according</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>experts</t>
-  </si>
-  <si>
-    <t>doc</t>
-  </si>
-  <si>
-    <t>damn</t>
-  </si>
-  <si>
-    <t>must</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>artificial</t>
-  </si>
-  <si>
-    <t>term</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>ya</t>
-  </si>
-  <si>
-    <t>information</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>found</t>
-  </si>
-  <si>
-    <t>gets</t>
-  </si>
-  <si>
-    <t>billion</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>director</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>regulations</t>
-  </si>
-  <si>
-    <t>holes</t>
-  </si>
-  <si>
-    <t>scroll</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>threat</t>
-  </si>
-  <si>
-    <t>technology</t>
-  </si>
-  <si>
-    <t>reality</t>
-  </si>
-  <si>
-    <t>frustrating</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>stomach</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>telling</t>
-  </si>
-  <si>
-    <t>drug</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>gone</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>men</t>
-  </si>
-  <si>
-    <t>pete</t>
-  </si>
-  <si>
-    <t>days</t>
-  </si>
-  <si>
-    <t>ban</t>
-  </si>
-  <si>
-    <t>harmful</t>
-  </si>
-  <si>
-    <t>anti</t>
-  </si>
-  <si>
-    <t>va</t>
-  </si>
-  <si>
-    <t>charge</t>
-  </si>
-  <si>
-    <t>college</t>
-  </si>
-  <si>
-    <t>bye</t>
-  </si>
-  <si>
-    <t>scrolling</t>
-  </si>
-  <si>
-    <t>bu</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>mani</t>
-  </si>
-  <si>
-    <t>facts</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>et</t>
-  </si>
-  <si>
-    <t>crap</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>hacked</t>
-  </si>
-  <si>
-    <t>hacker</t>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>insight</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>devices</t>
+  </si>
+  <si>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>bicycle</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>terror</t>
+  </si>
+  <si>
+    <t>annoying</t>
+  </si>
+  <si>
+    <t>algorithm</t>
+  </si>
+  <si>
+    <t>masterpiece</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>goals</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>waiting</t>
+  </si>
+  <si>
+    <t>means</t>
   </si>
   <si>
     <t>thing</t>
   </si>
   <si>
-    <t>intriguing</t>
-  </si>
-  <si>
-    <t>vincent</t>
-  </si>
-  <si>
-    <t>prop</t>
-  </si>
-  <si>
-    <t>flying</t>
-  </si>
-  <si>
-    <t>tb</t>
-  </si>
-  <si>
-    <t>pain</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>mon</t>
-  </si>
-  <si>
-    <t>drunk</t>
-  </si>
-  <si>
-    <t>blocking</t>
-  </si>
-  <si>
-    <t>away</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>flooded</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>21st</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>films</t>
-  </si>
-  <si>
-    <t>blown</t>
-  </si>
-  <si>
-    <t>five</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>three</t>
-  </si>
-  <si>
-    <t>four</t>
-  </si>
-  <si>
-    <t>months</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>completely</t>
-  </si>
-  <si>
-    <t>human</t>
-  </si>
-  <si>
-    <t>tears</t>
-  </si>
-  <si>
-    <t>government</t>
-  </si>
-  <si>
-    <t>ni</t>
-  </si>
-  <si>
-    <t>stuff</t>
-  </si>
-  <si>
-    <t>music</t>
-  </si>
-  <si>
-    <t>psychological</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>rates</t>
-  </si>
-  <si>
-    <t>among</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>aged</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>shut</t>
-  </si>
-  <si>
-    <t>pp</t>
-  </si>
-  <si>
-    <t>scared</t>
-  </si>
-  <si>
-    <t>saw</t>
-  </si>
-  <si>
-    <t>bloody</t>
-  </si>
-  <si>
-    <t>crying</t>
-  </si>
-  <si>
-    <t>ti</t>
-  </si>
-  <si>
-    <t>corrupt</t>
-  </si>
-  <si>
-    <t>wondering</t>
-  </si>
-  <si>
-    <t>portrayed</t>
-  </si>
-  <si>
-    <t>blow</t>
-  </si>
-  <si>
-    <t>matrix</t>
-  </si>
-  <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>patriarch</t>
-  </si>
-  <si>
-    <t>worrying</t>
-  </si>
-  <si>
-    <t>point</t>
-  </si>
-  <si>
-    <t>definitely</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>fact</t>
-  </si>
-  <si>
-    <t>everything</t>
-  </si>
-  <si>
-    <t>algorithms</t>
-  </si>
-  <si>
-    <t>talks</t>
-  </si>
-  <si>
-    <t>pali</t>
-  </si>
-  <si>
-    <t>side</t>
-  </si>
-  <si>
-    <t>connect</t>
-  </si>
-  <si>
-    <t>art</t>
-  </si>
-  <si>
-    <t>regulate</t>
-  </si>
-  <si>
-    <t>revelations</t>
-  </si>
-  <si>
-    <t>guinea</t>
-  </si>
-  <si>
-    <t>horror</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>surveillance</t>
-  </si>
-  <si>
-    <t>capitalism</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>asa</t>
-  </si>
-  <si>
-    <t>techno</t>
-  </si>
-  <si>
-    <t>account</t>
-  </si>
-  <si>
-    <t>revealed</t>
-  </si>
-  <si>
-    <t>mere</t>
-  </si>
-  <si>
-    <t>update</t>
-  </si>
-  <si>
-    <t>nee</t>
-  </si>
-  <si>
-    <t>hidden</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>movies</t>
-  </si>
-  <si>
-    <t>dr</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>feeling</t>
-  </si>
-  <si>
-    <t>ha</t>
-  </si>
-  <si>
-    <t>followers</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>sucks</t>
-  </si>
-  <si>
-    <t>driving</t>
-  </si>
-  <si>
-    <t>eerie</t>
-  </si>
-  <si>
-    <t>break</t>
-  </si>
-  <si>
-    <t>ass</t>
-  </si>
-  <si>
-    <t>soon</t>
-  </si>
-  <si>
-    <t>tonight</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>laser</t>
-  </si>
-  <si>
-    <t>impact</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>woke</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>posts</t>
-  </si>
-  <si>
-    <t>rat</t>
-  </si>
-  <si>
-    <t>net</t>
-  </si>
-  <si>
-    <t>insight</t>
+    <t>first</t>
+  </si>
+  <si>
+    <t>listen</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>magic</t>
+  </si>
+  <si>
+    <t>sufficiently</t>
+  </si>
+  <si>
+    <t>advanced</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>aware</t>
   </si>
   <si>
     <t>documentary</t>
   </si>
   <si>
-    <t>slot</t>
-  </si>
-  <si>
-    <t>problematic</t>
-  </si>
-  <si>
-    <t>brain</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>iphone</t>
-  </si>
-  <si>
-    <t>terror</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>goals</t>
-  </si>
-  <si>
-    <t>show</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>waiting</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>dilemma</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>advanced</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>engagement</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>using</t>
-  </si>
-  <si>
-    <t>need</t>
+    <t>activity</t>
+  </si>
+  <si>
+    <t>uses</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>•</t>
+  </si>
+  <si>
     <t>glad</t>
   </si>
   <si>
-    <t>turning</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>worth</t>
+    <t>allowing</t>
+  </si>
+  <si>
+    <t>see</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>listen</t>
+    <t>better</t>
   </si>
   <si>
     <t>thanks</t>
@@ -1400,7 +1133,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q310"/>
+  <dimension ref="A1:Q210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1411,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>317</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1469,13 +1202,13 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.06812169312169312</v>
+        <v>0.08069883527454243</v>
       </c>
       <c r="C3">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D3">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1487,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>318</v>
+        <v>218</v>
       </c>
       <c r="K3">
-        <v>0.2352941176470588</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="L3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1511,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1519,13 +1252,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.06746031746031746</v>
+        <v>0.07986688851913477</v>
       </c>
       <c r="C4">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D4">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1537,13 +1270,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>319</v>
+        <v>219</v>
       </c>
       <c r="K4">
-        <v>0.1029411764705882</v>
+        <v>0.07608695652173914</v>
       </c>
       <c r="L4">
         <v>7</v>
@@ -1561,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1569,13 +1302,13 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.06349206349206349</v>
+        <v>0.07903494176372712</v>
       </c>
       <c r="C5">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1587,31 +1320,31 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>320</v>
+        <v>111</v>
       </c>
       <c r="K5">
-        <v>0.07352941176470588</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="P5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>70</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1619,13 +1352,13 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.05621693121693121</v>
+        <v>0.07154742096505824</v>
       </c>
       <c r="C6">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D6">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1637,31 +1370,31 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>144</v>
+        <v>220</v>
       </c>
       <c r="K6">
-        <v>0.05882352941176471</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N6">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1093</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1669,13 +1402,13 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.0496031746031746</v>
+        <v>0.0540765391014975</v>
       </c>
       <c r="C7">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D7">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1687,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>321</v>
+        <v>221</v>
       </c>
       <c r="K7">
-        <v>0.04411764705882353</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1711,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1719,13 +1452,13 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.04761904761904762</v>
+        <v>0.0524126455906822</v>
       </c>
       <c r="C8">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D8">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1737,13 +1470,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>322</v>
+        <v>222</v>
       </c>
       <c r="K8">
-        <v>0.04411764705882353</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="L8">
         <v>3</v>
@@ -1761,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1769,13 +1502,13 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.04431216931216931</v>
+        <v>0.03410981697171381</v>
       </c>
       <c r="C9">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D9">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1787,19 +1520,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>323</v>
+        <v>223</v>
       </c>
       <c r="K9">
-        <v>0.02941176470588235</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1811,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1819,13 +1552,13 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.03042328042328042</v>
+        <v>0.03327787021630615</v>
       </c>
       <c r="C10">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D10">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1837,19 +1570,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>324</v>
+        <v>224</v>
       </c>
       <c r="K10">
-        <v>0.02941176470588235</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1861,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1869,13 +1602,13 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02579365079365079</v>
+        <v>0.02828618968386023</v>
       </c>
       <c r="C11">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1887,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="K11">
-        <v>0.02941176470588235</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1911,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1919,13 +1652,13 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.01719576719576719</v>
+        <v>0.02412645590682196</v>
       </c>
       <c r="C12">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1937,13 +1670,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="K12">
-        <v>0.02941176470588235</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="L12">
         <v>2</v>
@@ -1961,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>313</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1969,13 +1702,13 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.01521164021164021</v>
+        <v>0.01497504159733777</v>
       </c>
       <c r="C13">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1987,13 +1720,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>327</v>
+        <v>227</v>
       </c>
       <c r="K13">
-        <v>0.02941176470588235</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="L13">
         <v>2</v>
@@ -2011,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2019,13 +1752,13 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.01521164021164021</v>
+        <v>0.01497504159733777</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2037,31 +1770,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>328</v>
+        <v>53</v>
       </c>
       <c r="K14">
-        <v>0.02941176470588235</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="L14">
         <v>2</v>
       </c>
       <c r="M14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -2069,13 +1802,13 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.01455026455026455</v>
+        <v>0.01331114808652246</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2090,28 +1823,28 @@
         <v>32</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>57</v>
+        <v>228</v>
       </c>
       <c r="K15">
-        <v>0.01470588235294118</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N15">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>657</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -2119,13 +1852,13 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.01256613756613757</v>
+        <v>0.01331114808652246</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2137,31 +1870,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>280</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>76</v>
+        <v>229</v>
       </c>
       <c r="K16">
-        <v>0.01470588235294118</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N16">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>777</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -2169,13 +1902,13 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.0119047619047619</v>
+        <v>0.01331114808652246</v>
       </c>
       <c r="C17">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2187,19 +1920,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>329</v>
+        <v>230</v>
       </c>
       <c r="K17">
-        <v>0.01470588235294118</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2211,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -2219,13 +1952,13 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.01058201058201058</v>
+        <v>0.01247920133111481</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2237,31 +1970,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>330</v>
+        <v>147</v>
       </c>
       <c r="K18">
-        <v>0.01470588235294118</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -2269,13 +2002,13 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.009259259259259259</v>
+        <v>0.0108153078202995</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2287,31 +2020,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="K19">
-        <v>0.01470588235294118</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N19">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="O19">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -2319,13 +2052,13 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.009259259259259259</v>
+        <v>0.009151414309484194</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2337,13 +2070,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>331</v>
+        <v>231</v>
       </c>
       <c r="K20">
-        <v>0.01470588235294118</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -2361,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -2369,13 +2102,13 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.008597883597883597</v>
+        <v>0.009151414309484194</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2387,13 +2120,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>332</v>
+        <v>232</v>
       </c>
       <c r="K21">
-        <v>0.01470588235294118</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -2411,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -2419,49 +2152,49 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.008597883597883597</v>
+        <v>0.009151414309484194</v>
       </c>
       <c r="C22">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>11</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>288</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="K22">
+        <v>0.0108695652173913</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>13</v>
-      </c>
-      <c r="D22">
-        <v>13</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>26</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="K22">
-        <v>0.01470588235294118</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2469,13 +2202,13 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0.007936507936507936</v>
+        <v>0.009151414309484194</v>
       </c>
       <c r="C23">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2487,13 +2220,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>334</v>
+        <v>234</v>
       </c>
       <c r="K23">
-        <v>0.01470588235294118</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -2511,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>71</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2519,13 +2252,13 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.007936507936507936</v>
+        <v>0.008319467554076539</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D24">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2537,31 +2270,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="K24">
-        <v>0.01470588235294118</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N24">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2569,13 +2302,13 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0.007275132275132275</v>
+        <v>0.007487520798668885</v>
       </c>
       <c r="C25">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2587,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>335</v>
+        <v>236</v>
       </c>
       <c r="K25">
-        <v>0.01470588235294118</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -2611,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2619,13 +2352,13 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.006613756613756613</v>
+        <v>0.007487520798668885</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2637,13 +2370,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>336</v>
+        <v>237</v>
       </c>
       <c r="K26">
-        <v>0.01470588235294118</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -2661,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2669,13 +2402,13 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.006613756613756613</v>
+        <v>0.007487520798668885</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2687,13 +2420,13 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>337</v>
+        <v>238</v>
       </c>
       <c r="K27">
-        <v>0.01470588235294118</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -2711,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>6</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2719,13 +2452,13 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.006613756613756613</v>
+        <v>0.006655574043261231</v>
       </c>
       <c r="C28">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2737,13 +2470,13 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>338</v>
+        <v>239</v>
       </c>
       <c r="K28">
-        <v>0.01470588235294118</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -2761,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2769,13 +2502,13 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.006613756613756613</v>
+        <v>0.006655574043261231</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D29">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2787,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>339</v>
+        <v>240</v>
       </c>
       <c r="K29">
-        <v>0.01470588235294118</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -2811,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2819,13 +2552,13 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.006613756613756613</v>
+        <v>0.006655574043261231</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D30">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2837,13 +2570,13 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>340</v>
+        <v>241</v>
       </c>
       <c r="K30">
-        <v>0.01470588235294118</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -2861,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2869,13 +2602,13 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.005952380952380952</v>
+        <v>0.006655574043261231</v>
       </c>
       <c r="C31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2887,13 +2620,13 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>341</v>
+        <v>242</v>
       </c>
       <c r="K31">
-        <v>0.01470588235294118</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -2911,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2919,13 +2652,13 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>0.005952380952380952</v>
+        <v>0.005823627287853577</v>
       </c>
       <c r="C32">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D32">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2937,13 +2670,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>342</v>
+        <v>243</v>
       </c>
       <c r="K32">
-        <v>0.01470588235294118</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -2961,21 +2694,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B33">
-        <v>0.005952380952380952</v>
+        <v>0.005823627287853577</v>
       </c>
       <c r="C33">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D33">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2987,21 +2720,45 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K33">
+        <v>0.0108695652173913</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B34">
-        <v>0.005291005291005291</v>
+        <v>0.005823627287853577</v>
       </c>
       <c r="C34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -3013,21 +2770,45 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>6</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K34">
+        <v>0.0108695652173913</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B35">
-        <v>0.005291005291005291</v>
+        <v>0.004991680532445923</v>
       </c>
       <c r="C35">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D35">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -3039,21 +2820,45 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="K35">
+        <v>0.0108695652173913</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B36">
-        <v>0.005291005291005291</v>
+        <v>0.004991680532445923</v>
       </c>
       <c r="C36">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D36">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -3065,21 +2870,45 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>3</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="K36">
+        <v>0.0108695652173913</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B37">
-        <v>0.005291005291005291</v>
+        <v>0.004991680532445923</v>
       </c>
       <c r="C37">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D37">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -3093,19 +2922,43 @@
       <c r="H37">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="J37" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="K37">
+        <v>0.0108695652173913</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B38">
-        <v>0.005291005291005291</v>
+        <v>0.004991680532445923</v>
       </c>
       <c r="C38">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D38">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -3117,21 +2970,45 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K38">
+        <v>0.0108695652173913</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B39">
-        <v>0.005291005291005291</v>
+        <v>0.004991680532445923</v>
       </c>
       <c r="C39">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D39">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -3143,21 +3020,45 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K39">
+        <v>0.0108695652173913</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B40">
-        <v>0.005291005291005291</v>
+        <v>0.004159733777038269</v>
       </c>
       <c r="C40">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D40">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -3169,47 +3070,95 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>3</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="K40">
+        <v>0.0108695652173913</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B41">
-        <v>0.004629629629629629</v>
+        <v>0.004159733777038269</v>
       </c>
       <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41">
         <v>7</v>
       </c>
-      <c r="D41">
-        <v>7</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="J41" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="K41">
+        <v>0.0108695652173913</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B42">
-        <v>0.004629629629629629</v>
+        <v>0.004159733777038269</v>
       </c>
       <c r="C42">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D42">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -3221,21 +3170,45 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="K42">
+        <v>0.0108695652173913</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B43">
-        <v>0.004629629629629629</v>
+        <v>0.004159733777038269</v>
       </c>
       <c r="C43">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D43">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -3247,21 +3220,21 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B44">
-        <v>0.003968253968253968</v>
+        <v>0.004159733777038269</v>
       </c>
       <c r="C44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3273,21 +3246,21 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B45">
-        <v>0.003968253968253968</v>
+        <v>0.004159733777038269</v>
       </c>
       <c r="C45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -3299,21 +3272,21 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B46">
-        <v>0.003968253968253968</v>
+        <v>0.003327787021630616</v>
       </c>
       <c r="C46">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D46">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -3325,47 +3298,47 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B47">
-        <v>0.003968253968253968</v>
+        <v>0.003327787021630616</v>
       </c>
       <c r="C47">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D47">
         <v>6</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B48">
-        <v>0.003968253968253968</v>
+        <v>0.003327787021630616</v>
       </c>
       <c r="C48">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D48">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3377,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3385,13 +3358,13 @@
         <v>55</v>
       </c>
       <c r="B49">
-        <v>0.003968253968253968</v>
+        <v>0.003327787021630616</v>
       </c>
       <c r="C49">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D49">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -3403,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3411,13 +3384,13 @@
         <v>56</v>
       </c>
       <c r="B50">
-        <v>0.003968253968253968</v>
+        <v>0.003327787021630616</v>
       </c>
       <c r="C50">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D50">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3429,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3437,25 +3410,25 @@
         <v>57</v>
       </c>
       <c r="B51">
-        <v>0.003968253968253968</v>
+        <v>0.003327787021630616</v>
       </c>
       <c r="C51">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D51">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E51">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>657</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3463,13 +3436,13 @@
         <v>58</v>
       </c>
       <c r="B52">
-        <v>0.003306878306878307</v>
+        <v>0.003327787021630616</v>
       </c>
       <c r="C52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3481,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3489,13 +3462,13 @@
         <v>59</v>
       </c>
       <c r="B53">
-        <v>0.003306878306878307</v>
+        <v>0.002495840266222962</v>
       </c>
       <c r="C53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3507,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>5</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3515,13 +3488,13 @@
         <v>60</v>
       </c>
       <c r="B54">
-        <v>0.003306878306878307</v>
+        <v>0.002495840266222962</v>
       </c>
       <c r="C54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3533,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>39</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3541,13 +3514,13 @@
         <v>61</v>
       </c>
       <c r="B55">
-        <v>0.003306878306878307</v>
+        <v>0.002495840266222962</v>
       </c>
       <c r="C55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3559,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>6</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3567,13 +3540,13 @@
         <v>62</v>
       </c>
       <c r="B56">
-        <v>0.003306878306878307</v>
+        <v>0.002495840266222962</v>
       </c>
       <c r="C56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3585,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3593,13 +3566,13 @@
         <v>63</v>
       </c>
       <c r="B57">
-        <v>0.002645502645502645</v>
+        <v>0.002495840266222962</v>
       </c>
       <c r="C57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3611,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3619,13 +3592,13 @@
         <v>64</v>
       </c>
       <c r="B58">
-        <v>0.002645502645502645</v>
+        <v>0.002495840266222962</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3637,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3645,13 +3618,13 @@
         <v>65</v>
       </c>
       <c r="B59">
-        <v>0.002645502645502645</v>
+        <v>0.002495840266222962</v>
       </c>
       <c r="C59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3663,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3671,13 +3644,13 @@
         <v>66</v>
       </c>
       <c r="B60">
-        <v>0.002645502645502645</v>
+        <v>0.002495840266222962</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -3689,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3697,13 +3670,13 @@
         <v>67</v>
       </c>
       <c r="B61">
-        <v>0.002645502645502645</v>
+        <v>0.002495840266222962</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -3715,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3723,13 +3696,13 @@
         <v>68</v>
       </c>
       <c r="B62">
-        <v>0.002645502645502645</v>
+        <v>0.002495840266222962</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -3741,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3749,13 +3722,13 @@
         <v>69</v>
       </c>
       <c r="B63">
-        <v>0.002645502645502645</v>
+        <v>0.002495840266222962</v>
       </c>
       <c r="C63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -3767,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3775,13 +3748,13 @@
         <v>70</v>
       </c>
       <c r="B64">
-        <v>0.002645502645502645</v>
+        <v>0.002495840266222962</v>
       </c>
       <c r="C64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -3793,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3801,13 +3774,13 @@
         <v>71</v>
       </c>
       <c r="B65">
-        <v>0.002645502645502645</v>
+        <v>0.002495840266222962</v>
       </c>
       <c r="C65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -3827,13 +3800,13 @@
         <v>72</v>
       </c>
       <c r="B66">
-        <v>0.002645502645502645</v>
+        <v>0.002495840266222962</v>
       </c>
       <c r="C66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -3845,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3853,7 +3826,7 @@
         <v>73</v>
       </c>
       <c r="B67">
-        <v>0.001984126984126984</v>
+        <v>0.002495840266222962</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -3871,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3879,7 +3852,7 @@
         <v>74</v>
       </c>
       <c r="B68">
-        <v>0.001984126984126984</v>
+        <v>0.002495840266222962</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -3897,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3905,7 +3878,7 @@
         <v>75</v>
       </c>
       <c r="B69">
-        <v>0.001984126984126984</v>
+        <v>0.002495840266222962</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -3923,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3931,25 +3904,25 @@
         <v>76</v>
       </c>
       <c r="B70">
-        <v>0.001984126984126984</v>
+        <v>0.002495840266222962</v>
       </c>
       <c r="C70">
         <v>3</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E70">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>777</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3957,13 +3930,13 @@
         <v>77</v>
       </c>
       <c r="B71">
-        <v>0.001984126984126984</v>
+        <v>0.001663893510815308</v>
       </c>
       <c r="C71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -3975,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3983,13 +3956,13 @@
         <v>78</v>
       </c>
       <c r="B72">
-        <v>0.001984126984126984</v>
+        <v>0.001663893510815308</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -4001,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4009,13 +3982,13 @@
         <v>79</v>
       </c>
       <c r="B73">
-        <v>0.001984126984126984</v>
+        <v>0.001663893510815308</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -4027,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>12</v>
+        <v>662</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4035,13 +4008,13 @@
         <v>80</v>
       </c>
       <c r="B74">
-        <v>0.001984126984126984</v>
+        <v>0.001663893510815308</v>
       </c>
       <c r="C74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -4053,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4061,25 +4034,25 @@
         <v>81</v>
       </c>
       <c r="B75">
-        <v>0.001984126984126984</v>
+        <v>0.001663893510815308</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75">
         <v>3</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>12</v>
+        <v>613</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4087,13 +4060,13 @@
         <v>82</v>
       </c>
       <c r="B76">
-        <v>0.001984126984126984</v>
+        <v>0.001663893510815308</v>
       </c>
       <c r="C76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -4105,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4113,13 +4086,13 @@
         <v>83</v>
       </c>
       <c r="B77">
-        <v>0.001984126984126984</v>
+        <v>0.001663893510815308</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -4131,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>18</v>
+        <v>538</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4139,13 +4112,13 @@
         <v>84</v>
       </c>
       <c r="B78">
-        <v>0.001984126984126984</v>
+        <v>0.001663893510815308</v>
       </c>
       <c r="C78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -4157,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4165,13 +4138,13 @@
         <v>85</v>
       </c>
       <c r="B79">
-        <v>0.001984126984126984</v>
+        <v>0.001663893510815308</v>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -4183,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4191,13 +4164,13 @@
         <v>86</v>
       </c>
       <c r="B80">
-        <v>0.001984126984126984</v>
+        <v>0.001663893510815308</v>
       </c>
       <c r="C80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -4209,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4217,13 +4190,13 @@
         <v>87</v>
       </c>
       <c r="B81">
-        <v>0.001984126984126984</v>
+        <v>0.001663893510815308</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -4235,7 +4208,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4243,13 +4216,13 @@
         <v>88</v>
       </c>
       <c r="B82">
-        <v>0.001984126984126984</v>
+        <v>0.001663893510815308</v>
       </c>
       <c r="C82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -4261,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>76</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4269,13 +4242,13 @@
         <v>89</v>
       </c>
       <c r="B83">
-        <v>0.001984126984126984</v>
+        <v>0.001663893510815308</v>
       </c>
       <c r="C83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -4295,13 +4268,13 @@
         <v>90</v>
       </c>
       <c r="B84">
-        <v>0.001984126984126984</v>
+        <v>0.001663893510815308</v>
       </c>
       <c r="C84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -4313,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4321,13 +4294,13 @@
         <v>91</v>
       </c>
       <c r="B85">
-        <v>0.001984126984126984</v>
+        <v>0.001663893510815308</v>
       </c>
       <c r="C85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -4339,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4347,13 +4320,13 @@
         <v>92</v>
       </c>
       <c r="B86">
-        <v>0.001984126984126984</v>
+        <v>0.001663893510815308</v>
       </c>
       <c r="C86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -4365,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4373,7 +4346,7 @@
         <v>93</v>
       </c>
       <c r="B87">
-        <v>0.001322751322751323</v>
+        <v>0.001663893510815308</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -4391,7 +4364,7 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4399,7 +4372,7 @@
         <v>94</v>
       </c>
       <c r="B88">
-        <v>0.001322751322751323</v>
+        <v>0.001663893510815308</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -4417,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4425,7 +4398,7 @@
         <v>95</v>
       </c>
       <c r="B89">
-        <v>0.001322751322751323</v>
+        <v>0.001663893510815308</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -4443,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4451,7 +4424,7 @@
         <v>96</v>
       </c>
       <c r="B90">
-        <v>0.001322751322751323</v>
+        <v>0.001663893510815308</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -4469,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4477,7 +4450,7 @@
         <v>97</v>
       </c>
       <c r="B91">
-        <v>0.001322751322751323</v>
+        <v>0.001663893510815308</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -4495,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4503,7 +4476,7 @@
         <v>98</v>
       </c>
       <c r="B92">
-        <v>0.001322751322751323</v>
+        <v>0.001663893510815308</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -4521,7 +4494,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4529,7 +4502,7 @@
         <v>99</v>
       </c>
       <c r="B93">
-        <v>0.001322751322751323</v>
+        <v>0.001663893510815308</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -4547,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4555,7 +4528,7 @@
         <v>100</v>
       </c>
       <c r="B94">
-        <v>0.001322751322751323</v>
+        <v>0.001663893510815308</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -4573,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4581,7 +4554,7 @@
         <v>101</v>
       </c>
       <c r="B95">
-        <v>0.001322751322751323</v>
+        <v>0.001663893510815308</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -4599,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4607,7 +4580,7 @@
         <v>102</v>
       </c>
       <c r="B96">
-        <v>0.001322751322751323</v>
+        <v>0.001663893510815308</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -4625,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4633,7 +4606,7 @@
         <v>103</v>
       </c>
       <c r="B97">
-        <v>0.001322751322751323</v>
+        <v>0.001663893510815308</v>
       </c>
       <c r="C97">
         <v>2</v>
@@ -4651,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4659,7 +4632,7 @@
         <v>104</v>
       </c>
       <c r="B98">
-        <v>0.001322751322751323</v>
+        <v>0.001663893510815308</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -4677,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4685,13 +4658,13 @@
         <v>105</v>
       </c>
       <c r="B99">
-        <v>0.001322751322751323</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -4703,7 +4676,7 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4711,13 +4684,13 @@
         <v>106</v>
       </c>
       <c r="B100">
-        <v>0.001322751322751323</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -4729,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4737,13 +4710,13 @@
         <v>107</v>
       </c>
       <c r="B101">
-        <v>0.001322751322751323</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -4755,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4763,13 +4736,13 @@
         <v>108</v>
       </c>
       <c r="B102">
-        <v>0.001322751322751323</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -4789,13 +4762,13 @@
         <v>109</v>
       </c>
       <c r="B103">
-        <v>0.001322751322751323</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -4807,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4815,13 +4788,13 @@
         <v>110</v>
       </c>
       <c r="B104">
-        <v>0.001322751322751323</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -4833,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4841,25 +4814,25 @@
         <v>111</v>
       </c>
       <c r="B105">
-        <v>0.001322751322751323</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D105">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="G105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4867,13 +4840,13 @@
         <v>112</v>
       </c>
       <c r="B106">
-        <v>0.001322751322751323</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -4885,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4893,13 +4866,13 @@
         <v>113</v>
       </c>
       <c r="B107">
-        <v>0.001322751322751323</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -4911,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4919,13 +4892,13 @@
         <v>114</v>
       </c>
       <c r="B108">
-        <v>0.001322751322751323</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -4937,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4945,13 +4918,13 @@
         <v>115</v>
       </c>
       <c r="B109">
-        <v>0.001322751322751323</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -4963,7 +4936,7 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4971,13 +4944,13 @@
         <v>116</v>
       </c>
       <c r="B110">
-        <v>0.001322751322751323</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -4989,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4997,13 +4970,13 @@
         <v>117</v>
       </c>
       <c r="B111">
-        <v>0.001322751322751323</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -5015,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5023,13 +4996,13 @@
         <v>118</v>
       </c>
       <c r="B112">
-        <v>0.001322751322751323</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -5041,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5049,13 +5022,13 @@
         <v>119</v>
       </c>
       <c r="B113">
-        <v>0.001322751322751323</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -5067,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5075,13 +5048,13 @@
         <v>120</v>
       </c>
       <c r="B114">
-        <v>0.001322751322751323</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -5093,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5101,13 +5074,13 @@
         <v>121</v>
       </c>
       <c r="B115">
-        <v>0.001322751322751323</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -5119,7 +5092,7 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>39</v>
+        <v>82</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5127,13 +5100,13 @@
         <v>122</v>
       </c>
       <c r="B116">
-        <v>0.001322751322751323</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -5145,7 +5118,7 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5153,13 +5126,13 @@
         <v>123</v>
       </c>
       <c r="B117">
-        <v>0.001322751322751323</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -5171,7 +5144,7 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5179,13 +5152,13 @@
         <v>124</v>
       </c>
       <c r="B118">
-        <v>0.001322751322751323</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -5197,7 +5170,7 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5205,13 +5178,13 @@
         <v>125</v>
       </c>
       <c r="B119">
-        <v>0.001322751322751323</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -5223,7 +5196,7 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5231,13 +5204,13 @@
         <v>126</v>
       </c>
       <c r="B120">
-        <v>0.001322751322751323</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -5249,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5257,13 +5230,13 @@
         <v>127</v>
       </c>
       <c r="B121">
-        <v>0.001322751322751323</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -5275,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5283,13 +5256,13 @@
         <v>128</v>
       </c>
       <c r="B122">
-        <v>0.001322751322751323</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -5301,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5309,13 +5282,13 @@
         <v>129</v>
       </c>
       <c r="B123">
-        <v>0.001322751322751323</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -5327,7 +5300,7 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5335,13 +5308,13 @@
         <v>130</v>
       </c>
       <c r="B124">
-        <v>0.001322751322751323</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -5353,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5361,13 +5334,13 @@
         <v>131</v>
       </c>
       <c r="B125">
-        <v>0.001322751322751323</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -5379,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5387,13 +5360,13 @@
         <v>132</v>
       </c>
       <c r="B126">
-        <v>0.001322751322751323</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -5405,7 +5378,7 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5413,7 +5386,7 @@
         <v>133</v>
       </c>
       <c r="B127">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -5431,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5439,7 +5412,7 @@
         <v>134</v>
       </c>
       <c r="B128">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -5457,7 +5430,7 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5465,7 +5438,7 @@
         <v>135</v>
       </c>
       <c r="B129">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -5491,7 +5464,7 @@
         <v>136</v>
       </c>
       <c r="B130">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -5509,7 +5482,7 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>82</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5517,7 +5490,7 @@
         <v>137</v>
       </c>
       <c r="B131">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -5543,7 +5516,7 @@
         <v>138</v>
       </c>
       <c r="B132">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -5561,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5569,7 +5542,7 @@
         <v>139</v>
       </c>
       <c r="B133">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -5587,7 +5560,7 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5595,7 +5568,7 @@
         <v>140</v>
       </c>
       <c r="B134">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -5613,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5621,7 +5594,7 @@
         <v>141</v>
       </c>
       <c r="B135">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -5639,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>6</v>
+        <v>780</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5647,7 +5620,7 @@
         <v>142</v>
       </c>
       <c r="B136">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -5665,7 +5638,7 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>108</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5673,7 +5646,7 @@
         <v>143</v>
       </c>
       <c r="B137">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -5691,7 +5664,7 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5699,25 +5672,25 @@
         <v>144</v>
       </c>
       <c r="B138">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E138">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F138">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="G138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138">
-        <v>1093</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5725,7 +5698,7 @@
         <v>145</v>
       </c>
       <c r="B139">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -5743,7 +5716,7 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>8</v>
+        <v>131</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5751,7 +5724,7 @@
         <v>146</v>
       </c>
       <c r="B140">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -5769,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5777,25 +5750,25 @@
         <v>147</v>
       </c>
       <c r="B141">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5803,7 +5776,7 @@
         <v>148</v>
       </c>
       <c r="B142">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -5821,7 +5794,7 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>160</v>
+        <v>20</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5829,25 +5802,25 @@
         <v>149</v>
       </c>
       <c r="B143">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="D143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E143">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F143">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143">
-        <v>614</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5855,7 +5828,7 @@
         <v>150</v>
       </c>
       <c r="B144">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -5873,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5881,7 +5854,7 @@
         <v>151</v>
       </c>
       <c r="B145">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -5899,7 +5872,7 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5907,7 +5880,7 @@
         <v>152</v>
       </c>
       <c r="B146">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -5925,7 +5898,7 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5933,7 +5906,7 @@
         <v>153</v>
       </c>
       <c r="B147">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -5951,7 +5924,7 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5959,7 +5932,7 @@
         <v>154</v>
       </c>
       <c r="B148">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -5977,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5985,7 +5958,7 @@
         <v>155</v>
       </c>
       <c r="B149">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -6003,7 +5976,7 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>539</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6011,7 +5984,7 @@
         <v>156</v>
       </c>
       <c r="B150">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -6029,7 +6002,7 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6037,7 +6010,7 @@
         <v>157</v>
       </c>
       <c r="B151">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -6055,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6063,7 +6036,7 @@
         <v>158</v>
       </c>
       <c r="B152">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -6089,7 +6062,7 @@
         <v>159</v>
       </c>
       <c r="B153">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -6107,7 +6080,7 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6115,7 +6088,7 @@
         <v>160</v>
       </c>
       <c r="B154">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -6133,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6141,7 +6114,7 @@
         <v>161</v>
       </c>
       <c r="B155">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -6159,7 +6132,7 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6167,7 +6140,7 @@
         <v>162</v>
       </c>
       <c r="B156">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -6185,7 +6158,7 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6193,7 +6166,7 @@
         <v>163</v>
       </c>
       <c r="B157">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -6211,7 +6184,7 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6219,7 +6192,7 @@
         <v>164</v>
       </c>
       <c r="B158">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -6237,7 +6210,7 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6245,7 +6218,7 @@
         <v>165</v>
       </c>
       <c r="B159">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -6263,7 +6236,7 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6271,7 +6244,7 @@
         <v>166</v>
       </c>
       <c r="B160">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -6289,7 +6262,7 @@
         <v>0</v>
       </c>
       <c r="H160">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6297,7 +6270,7 @@
         <v>167</v>
       </c>
       <c r="B161">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -6315,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="H161">
-        <v>58</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6323,7 +6296,7 @@
         <v>168</v>
       </c>
       <c r="B162">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -6341,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="H162">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6349,7 +6322,7 @@
         <v>169</v>
       </c>
       <c r="B163">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -6367,7 +6340,7 @@
         <v>0</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6375,7 +6348,7 @@
         <v>170</v>
       </c>
       <c r="B164">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -6393,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="H164">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6401,7 +6374,7 @@
         <v>171</v>
       </c>
       <c r="B165">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -6419,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="H165">
-        <v>45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6427,7 +6400,7 @@
         <v>172</v>
       </c>
       <c r="B166">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -6445,7 +6418,7 @@
         <v>0</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6453,7 +6426,7 @@
         <v>173</v>
       </c>
       <c r="B167">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -6471,7 +6444,7 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <v>131</v>
+        <v>40</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6479,7 +6452,7 @@
         <v>174</v>
       </c>
       <c r="B168">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -6497,7 +6470,7 @@
         <v>0</v>
       </c>
       <c r="H168">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6505,7 +6478,7 @@
         <v>175</v>
       </c>
       <c r="B169">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -6523,7 +6496,7 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6531,7 +6504,7 @@
         <v>176</v>
       </c>
       <c r="B170">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -6549,7 +6522,7 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6557,7 +6530,7 @@
         <v>177</v>
       </c>
       <c r="B171">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -6583,7 +6556,7 @@
         <v>178</v>
       </c>
       <c r="B172">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -6601,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="H172">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6609,7 +6582,7 @@
         <v>179</v>
       </c>
       <c r="B173">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -6627,7 +6600,7 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6635,7 +6608,7 @@
         <v>180</v>
       </c>
       <c r="B174">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -6653,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="H174">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6661,7 +6634,7 @@
         <v>181</v>
       </c>
       <c r="B175">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -6679,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="H175">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6687,7 +6660,7 @@
         <v>182</v>
       </c>
       <c r="B176">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -6705,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6713,7 +6686,7 @@
         <v>183</v>
       </c>
       <c r="B177">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -6739,7 +6712,7 @@
         <v>184</v>
       </c>
       <c r="B178">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -6757,7 +6730,7 @@
         <v>0</v>
       </c>
       <c r="H178">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6765,7 +6738,7 @@
         <v>185</v>
       </c>
       <c r="B179">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -6783,7 +6756,7 @@
         <v>0</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6791,7 +6764,7 @@
         <v>186</v>
       </c>
       <c r="B180">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -6809,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6817,7 +6790,7 @@
         <v>187</v>
       </c>
       <c r="B181">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -6835,7 +6808,7 @@
         <v>0</v>
       </c>
       <c r="H181">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6843,7 +6816,7 @@
         <v>188</v>
       </c>
       <c r="B182">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -6861,7 +6834,7 @@
         <v>0</v>
       </c>
       <c r="H182">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6869,7 +6842,7 @@
         <v>189</v>
       </c>
       <c r="B183">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -6887,7 +6860,7 @@
         <v>0</v>
       </c>
       <c r="H183">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6895,7 +6868,7 @@
         <v>190</v>
       </c>
       <c r="B184">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -6913,7 +6886,7 @@
         <v>0</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6921,7 +6894,7 @@
         <v>191</v>
       </c>
       <c r="B185">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -6939,7 +6912,7 @@
         <v>0</v>
       </c>
       <c r="H185">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6947,7 +6920,7 @@
         <v>192</v>
       </c>
       <c r="B186">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -6965,7 +6938,7 @@
         <v>0</v>
       </c>
       <c r="H186">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6973,7 +6946,7 @@
         <v>193</v>
       </c>
       <c r="B187">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -6991,7 +6964,7 @@
         <v>0</v>
       </c>
       <c r="H187">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6999,7 +6972,7 @@
         <v>194</v>
       </c>
       <c r="B188">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -7017,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="H188">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7025,7 +6998,7 @@
         <v>195</v>
       </c>
       <c r="B189">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -7051,7 +7024,7 @@
         <v>196</v>
       </c>
       <c r="B190">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -7069,7 +7042,7 @@
         <v>0</v>
       </c>
       <c r="H190">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7077,7 +7050,7 @@
         <v>197</v>
       </c>
       <c r="B191">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -7095,7 +7068,7 @@
         <v>0</v>
       </c>
       <c r="H191">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7103,7 +7076,7 @@
         <v>198</v>
       </c>
       <c r="B192">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -7121,7 +7094,7 @@
         <v>0</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7129,7 +7102,7 @@
         <v>199</v>
       </c>
       <c r="B193">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -7147,7 +7120,7 @@
         <v>0</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7155,25 +7128,25 @@
         <v>200</v>
       </c>
       <c r="B194">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E194">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F194">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H194">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7181,7 +7154,7 @@
         <v>201</v>
       </c>
       <c r="B195">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -7199,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7207,7 +7180,7 @@
         <v>202</v>
       </c>
       <c r="B196">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -7225,7 +7198,7 @@
         <v>0</v>
       </c>
       <c r="H196">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7233,7 +7206,7 @@
         <v>203</v>
       </c>
       <c r="B197">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -7251,7 +7224,7 @@
         <v>0</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7259,7 +7232,7 @@
         <v>204</v>
       </c>
       <c r="B198">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -7277,7 +7250,7 @@
         <v>0</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7285,7 +7258,7 @@
         <v>205</v>
       </c>
       <c r="B199">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -7303,7 +7276,7 @@
         <v>0</v>
       </c>
       <c r="H199">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7311,7 +7284,7 @@
         <v>206</v>
       </c>
       <c r="B200">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -7329,7 +7302,7 @@
         <v>0</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7337,7 +7310,7 @@
         <v>207</v>
       </c>
       <c r="B201">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -7355,7 +7328,7 @@
         <v>0</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7363,7 +7336,7 @@
         <v>208</v>
       </c>
       <c r="B202">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -7381,7 +7354,7 @@
         <v>0</v>
       </c>
       <c r="H202">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7389,7 +7362,7 @@
         <v>209</v>
       </c>
       <c r="B203">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -7407,7 +7380,7 @@
         <v>0</v>
       </c>
       <c r="H203">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7415,7 +7388,7 @@
         <v>210</v>
       </c>
       <c r="B204">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -7433,7 +7406,7 @@
         <v>0</v>
       </c>
       <c r="H204">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7441,7 +7414,7 @@
         <v>211</v>
       </c>
       <c r="B205">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -7459,7 +7432,7 @@
         <v>0</v>
       </c>
       <c r="H205">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7467,7 +7440,7 @@
         <v>212</v>
       </c>
       <c r="B206">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -7485,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7493,7 +7466,7 @@
         <v>213</v>
       </c>
       <c r="B207">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -7511,7 +7484,7 @@
         <v>0</v>
       </c>
       <c r="H207">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7519,7 +7492,7 @@
         <v>214</v>
       </c>
       <c r="B208">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -7537,7 +7510,7 @@
         <v>0</v>
       </c>
       <c r="H208">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7545,7 +7518,7 @@
         <v>215</v>
       </c>
       <c r="B209">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -7563,7 +7536,7 @@
         <v>0</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7571,7 +7544,7 @@
         <v>216</v>
       </c>
       <c r="B210">
-        <v>0.0006613756613756613</v>
+        <v>0.0008319467554076539</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -7589,2606 +7562,6 @@
         <v>0</v>
       </c>
       <c r="H210">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
-      <c r="A211" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B211">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C211">
-        <v>1</v>
-      </c>
-      <c r="D211">
-        <v>1</v>
-      </c>
-      <c r="E211">
-        <v>1</v>
-      </c>
-      <c r="F211">
-        <v>0</v>
-      </c>
-      <c r="G211" t="b">
-        <v>0</v>
-      </c>
-      <c r="H211">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
-      <c r="A212" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B212">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C212">
-        <v>1</v>
-      </c>
-      <c r="D212">
-        <v>1</v>
-      </c>
-      <c r="E212">
-        <v>1</v>
-      </c>
-      <c r="F212">
-        <v>0</v>
-      </c>
-      <c r="G212" t="b">
-        <v>0</v>
-      </c>
-      <c r="H212">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
-      <c r="A213" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B213">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C213">
-        <v>1</v>
-      </c>
-      <c r="D213">
-        <v>1</v>
-      </c>
-      <c r="E213">
-        <v>1</v>
-      </c>
-      <c r="F213">
-        <v>0</v>
-      </c>
-      <c r="G213" t="b">
-        <v>0</v>
-      </c>
-      <c r="H213">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
-      <c r="A214" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B214">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C214">
-        <v>1</v>
-      </c>
-      <c r="D214">
-        <v>1</v>
-      </c>
-      <c r="E214">
-        <v>1</v>
-      </c>
-      <c r="F214">
-        <v>0</v>
-      </c>
-      <c r="G214" t="b">
-        <v>0</v>
-      </c>
-      <c r="H214">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
-      <c r="A215" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B215">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C215">
-        <v>1</v>
-      </c>
-      <c r="D215">
-        <v>1</v>
-      </c>
-      <c r="E215">
-        <v>1</v>
-      </c>
-      <c r="F215">
-        <v>0</v>
-      </c>
-      <c r="G215" t="b">
-        <v>0</v>
-      </c>
-      <c r="H215">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
-      <c r="A216" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B216">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C216">
-        <v>1</v>
-      </c>
-      <c r="D216">
-        <v>1</v>
-      </c>
-      <c r="E216">
-        <v>1</v>
-      </c>
-      <c r="F216">
-        <v>0</v>
-      </c>
-      <c r="G216" t="b">
-        <v>0</v>
-      </c>
-      <c r="H216">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
-      <c r="A217" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B217">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C217">
-        <v>1</v>
-      </c>
-      <c r="D217">
-        <v>1</v>
-      </c>
-      <c r="E217">
-        <v>1</v>
-      </c>
-      <c r="F217">
-        <v>0</v>
-      </c>
-      <c r="G217" t="b">
-        <v>0</v>
-      </c>
-      <c r="H217">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
-      <c r="A218" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B218">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C218">
-        <v>1</v>
-      </c>
-      <c r="D218">
-        <v>1</v>
-      </c>
-      <c r="E218">
-        <v>1</v>
-      </c>
-      <c r="F218">
-        <v>0</v>
-      </c>
-      <c r="G218" t="b">
-        <v>0</v>
-      </c>
-      <c r="H218">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
-      <c r="A219" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B219">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C219">
-        <v>1</v>
-      </c>
-      <c r="D219">
-        <v>1</v>
-      </c>
-      <c r="E219">
-        <v>1</v>
-      </c>
-      <c r="F219">
-        <v>0</v>
-      </c>
-      <c r="G219" t="b">
-        <v>0</v>
-      </c>
-      <c r="H219">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
-      <c r="A220" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B220">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C220">
-        <v>1</v>
-      </c>
-      <c r="D220">
-        <v>1</v>
-      </c>
-      <c r="E220">
-        <v>1</v>
-      </c>
-      <c r="F220">
-        <v>0</v>
-      </c>
-      <c r="G220" t="b">
-        <v>0</v>
-      </c>
-      <c r="H220">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
-      <c r="A221" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B221">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C221">
-        <v>1</v>
-      </c>
-      <c r="D221">
-        <v>1</v>
-      </c>
-      <c r="E221">
-        <v>1</v>
-      </c>
-      <c r="F221">
-        <v>0</v>
-      </c>
-      <c r="G221" t="b">
-        <v>0</v>
-      </c>
-      <c r="H221">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
-      <c r="A222" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B222">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C222">
-        <v>1</v>
-      </c>
-      <c r="D222">
-        <v>1</v>
-      </c>
-      <c r="E222">
-        <v>1</v>
-      </c>
-      <c r="F222">
-        <v>0</v>
-      </c>
-      <c r="G222" t="b">
-        <v>0</v>
-      </c>
-      <c r="H222">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
-      <c r="A223" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B223">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C223">
-        <v>1</v>
-      </c>
-      <c r="D223">
-        <v>1</v>
-      </c>
-      <c r="E223">
-        <v>1</v>
-      </c>
-      <c r="F223">
-        <v>0</v>
-      </c>
-      <c r="G223" t="b">
-        <v>0</v>
-      </c>
-      <c r="H223">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
-      <c r="A224" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B224">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C224">
-        <v>1</v>
-      </c>
-      <c r="D224">
-        <v>1</v>
-      </c>
-      <c r="E224">
-        <v>1</v>
-      </c>
-      <c r="F224">
-        <v>0</v>
-      </c>
-      <c r="G224" t="b">
-        <v>0</v>
-      </c>
-      <c r="H224">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
-      <c r="A225" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B225">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C225">
-        <v>1</v>
-      </c>
-      <c r="D225">
-        <v>1</v>
-      </c>
-      <c r="E225">
-        <v>1</v>
-      </c>
-      <c r="F225">
-        <v>0</v>
-      </c>
-      <c r="G225" t="b">
-        <v>0</v>
-      </c>
-      <c r="H225">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
-      <c r="A226" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B226">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C226">
-        <v>1</v>
-      </c>
-      <c r="D226">
-        <v>1</v>
-      </c>
-      <c r="E226">
-        <v>1</v>
-      </c>
-      <c r="F226">
-        <v>0</v>
-      </c>
-      <c r="G226" t="b">
-        <v>0</v>
-      </c>
-      <c r="H226">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
-      <c r="A227" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B227">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C227">
-        <v>1</v>
-      </c>
-      <c r="D227">
-        <v>1</v>
-      </c>
-      <c r="E227">
-        <v>1</v>
-      </c>
-      <c r="F227">
-        <v>0</v>
-      </c>
-      <c r="G227" t="b">
-        <v>0</v>
-      </c>
-      <c r="H227">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
-      <c r="A228" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B228">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C228">
-        <v>1</v>
-      </c>
-      <c r="D228">
-        <v>1</v>
-      </c>
-      <c r="E228">
-        <v>1</v>
-      </c>
-      <c r="F228">
-        <v>0</v>
-      </c>
-      <c r="G228" t="b">
-        <v>0</v>
-      </c>
-      <c r="H228">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
-      <c r="A229" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B229">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C229">
-        <v>1</v>
-      </c>
-      <c r="D229">
-        <v>1</v>
-      </c>
-      <c r="E229">
-        <v>1</v>
-      </c>
-      <c r="F229">
-        <v>0</v>
-      </c>
-      <c r="G229" t="b">
-        <v>0</v>
-      </c>
-      <c r="H229">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
-      <c r="A230" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B230">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C230">
-        <v>1</v>
-      </c>
-      <c r="D230">
-        <v>1</v>
-      </c>
-      <c r="E230">
-        <v>1</v>
-      </c>
-      <c r="F230">
-        <v>0</v>
-      </c>
-      <c r="G230" t="b">
-        <v>0</v>
-      </c>
-      <c r="H230">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
-      <c r="A231" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B231">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C231">
-        <v>1</v>
-      </c>
-      <c r="D231">
-        <v>1</v>
-      </c>
-      <c r="E231">
-        <v>1</v>
-      </c>
-      <c r="F231">
-        <v>0</v>
-      </c>
-      <c r="G231" t="b">
-        <v>0</v>
-      </c>
-      <c r="H231">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
-      <c r="A232" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B232">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C232">
-        <v>1</v>
-      </c>
-      <c r="D232">
-        <v>1</v>
-      </c>
-      <c r="E232">
-        <v>1</v>
-      </c>
-      <c r="F232">
-        <v>0</v>
-      </c>
-      <c r="G232" t="b">
-        <v>0</v>
-      </c>
-      <c r="H232">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
-      <c r="A233" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B233">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C233">
-        <v>1</v>
-      </c>
-      <c r="D233">
-        <v>1</v>
-      </c>
-      <c r="E233">
-        <v>1</v>
-      </c>
-      <c r="F233">
-        <v>0</v>
-      </c>
-      <c r="G233" t="b">
-        <v>0</v>
-      </c>
-      <c r="H233">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
-      <c r="A234" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B234">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C234">
-        <v>1</v>
-      </c>
-      <c r="D234">
-        <v>1</v>
-      </c>
-      <c r="E234">
-        <v>1</v>
-      </c>
-      <c r="F234">
-        <v>0</v>
-      </c>
-      <c r="G234" t="b">
-        <v>0</v>
-      </c>
-      <c r="H234">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
-      <c r="A235" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B235">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C235">
-        <v>1</v>
-      </c>
-      <c r="D235">
-        <v>1</v>
-      </c>
-      <c r="E235">
-        <v>1</v>
-      </c>
-      <c r="F235">
-        <v>0</v>
-      </c>
-      <c r="G235" t="b">
-        <v>0</v>
-      </c>
-      <c r="H235">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
-      <c r="A236" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B236">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C236">
-        <v>1</v>
-      </c>
-      <c r="D236">
-        <v>1</v>
-      </c>
-      <c r="E236">
-        <v>1</v>
-      </c>
-      <c r="F236">
-        <v>0</v>
-      </c>
-      <c r="G236" t="b">
-        <v>0</v>
-      </c>
-      <c r="H236">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
-      <c r="A237" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B237">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C237">
-        <v>1</v>
-      </c>
-      <c r="D237">
-        <v>1</v>
-      </c>
-      <c r="E237">
-        <v>1</v>
-      </c>
-      <c r="F237">
-        <v>0</v>
-      </c>
-      <c r="G237" t="b">
-        <v>0</v>
-      </c>
-      <c r="H237">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
-      <c r="A238" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B238">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C238">
-        <v>1</v>
-      </c>
-      <c r="D238">
-        <v>1</v>
-      </c>
-      <c r="E238">
-        <v>1</v>
-      </c>
-      <c r="F238">
-        <v>0</v>
-      </c>
-      <c r="G238" t="b">
-        <v>0</v>
-      </c>
-      <c r="H238">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
-      <c r="A239" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B239">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C239">
-        <v>1</v>
-      </c>
-      <c r="D239">
-        <v>1</v>
-      </c>
-      <c r="E239">
-        <v>1</v>
-      </c>
-      <c r="F239">
-        <v>0</v>
-      </c>
-      <c r="G239" t="b">
-        <v>0</v>
-      </c>
-      <c r="H239">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
-      <c r="A240" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B240">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C240">
-        <v>1</v>
-      </c>
-      <c r="D240">
-        <v>1</v>
-      </c>
-      <c r="E240">
-        <v>1</v>
-      </c>
-      <c r="F240">
-        <v>0</v>
-      </c>
-      <c r="G240" t="b">
-        <v>0</v>
-      </c>
-      <c r="H240">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
-      <c r="A241" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B241">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C241">
-        <v>1</v>
-      </c>
-      <c r="D241">
-        <v>1</v>
-      </c>
-      <c r="E241">
-        <v>1</v>
-      </c>
-      <c r="F241">
-        <v>0</v>
-      </c>
-      <c r="G241" t="b">
-        <v>0</v>
-      </c>
-      <c r="H241">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
-      <c r="A242" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B242">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C242">
-        <v>1</v>
-      </c>
-      <c r="D242">
-        <v>1</v>
-      </c>
-      <c r="E242">
-        <v>1</v>
-      </c>
-      <c r="F242">
-        <v>0</v>
-      </c>
-      <c r="G242" t="b">
-        <v>0</v>
-      </c>
-      <c r="H242">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
-      <c r="A243" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B243">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C243">
-        <v>1</v>
-      </c>
-      <c r="D243">
-        <v>1</v>
-      </c>
-      <c r="E243">
-        <v>1</v>
-      </c>
-      <c r="F243">
-        <v>0</v>
-      </c>
-      <c r="G243" t="b">
-        <v>0</v>
-      </c>
-      <c r="H243">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
-      <c r="A244" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B244">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C244">
-        <v>1</v>
-      </c>
-      <c r="D244">
-        <v>1</v>
-      </c>
-      <c r="E244">
-        <v>1</v>
-      </c>
-      <c r="F244">
-        <v>0</v>
-      </c>
-      <c r="G244" t="b">
-        <v>0</v>
-      </c>
-      <c r="H244">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8">
-      <c r="A245" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B245">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C245">
-        <v>1</v>
-      </c>
-      <c r="D245">
-        <v>1</v>
-      </c>
-      <c r="E245">
-        <v>1</v>
-      </c>
-      <c r="F245">
-        <v>0</v>
-      </c>
-      <c r="G245" t="b">
-        <v>0</v>
-      </c>
-      <c r="H245">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
-      <c r="A246" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B246">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C246">
-        <v>1</v>
-      </c>
-      <c r="D246">
-        <v>1</v>
-      </c>
-      <c r="E246">
-        <v>1</v>
-      </c>
-      <c r="F246">
-        <v>0</v>
-      </c>
-      <c r="G246" t="b">
-        <v>0</v>
-      </c>
-      <c r="H246">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
-      <c r="A247" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B247">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C247">
-        <v>1</v>
-      </c>
-      <c r="D247">
-        <v>1</v>
-      </c>
-      <c r="E247">
-        <v>1</v>
-      </c>
-      <c r="F247">
-        <v>0</v>
-      </c>
-      <c r="G247" t="b">
-        <v>0</v>
-      </c>
-      <c r="H247">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
-      <c r="A248" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B248">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C248">
-        <v>1</v>
-      </c>
-      <c r="D248">
-        <v>1</v>
-      </c>
-      <c r="E248">
-        <v>1</v>
-      </c>
-      <c r="F248">
-        <v>0</v>
-      </c>
-      <c r="G248" t="b">
-        <v>0</v>
-      </c>
-      <c r="H248">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
-      <c r="A249" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B249">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C249">
-        <v>1</v>
-      </c>
-      <c r="D249">
-        <v>1</v>
-      </c>
-      <c r="E249">
-        <v>1</v>
-      </c>
-      <c r="F249">
-        <v>0</v>
-      </c>
-      <c r="G249" t="b">
-        <v>0</v>
-      </c>
-      <c r="H249">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
-      <c r="A250" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B250">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C250">
-        <v>1</v>
-      </c>
-      <c r="D250">
-        <v>1</v>
-      </c>
-      <c r="E250">
-        <v>1</v>
-      </c>
-      <c r="F250">
-        <v>0</v>
-      </c>
-      <c r="G250" t="b">
-        <v>0</v>
-      </c>
-      <c r="H250">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
-      <c r="A251" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B251">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C251">
-        <v>1</v>
-      </c>
-      <c r="D251">
-        <v>1</v>
-      </c>
-      <c r="E251">
-        <v>1</v>
-      </c>
-      <c r="F251">
-        <v>0</v>
-      </c>
-      <c r="G251" t="b">
-        <v>0</v>
-      </c>
-      <c r="H251">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
-      <c r="A252" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B252">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C252">
-        <v>1</v>
-      </c>
-      <c r="D252">
-        <v>1</v>
-      </c>
-      <c r="E252">
-        <v>1</v>
-      </c>
-      <c r="F252">
-        <v>0</v>
-      </c>
-      <c r="G252" t="b">
-        <v>0</v>
-      </c>
-      <c r="H252">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
-      <c r="A253" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B253">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C253">
-        <v>1</v>
-      </c>
-      <c r="D253">
-        <v>1</v>
-      </c>
-      <c r="E253">
-        <v>1</v>
-      </c>
-      <c r="F253">
-        <v>0</v>
-      </c>
-      <c r="G253" t="b">
-        <v>0</v>
-      </c>
-      <c r="H253">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
-      <c r="A254" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B254">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C254">
-        <v>1</v>
-      </c>
-      <c r="D254">
-        <v>1</v>
-      </c>
-      <c r="E254">
-        <v>1</v>
-      </c>
-      <c r="F254">
-        <v>0</v>
-      </c>
-      <c r="G254" t="b">
-        <v>0</v>
-      </c>
-      <c r="H254">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8">
-      <c r="A255" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B255">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C255">
-        <v>1</v>
-      </c>
-      <c r="D255">
-        <v>1</v>
-      </c>
-      <c r="E255">
-        <v>1</v>
-      </c>
-      <c r="F255">
-        <v>0</v>
-      </c>
-      <c r="G255" t="b">
-        <v>0</v>
-      </c>
-      <c r="H255">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
-      <c r="A256" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B256">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C256">
-        <v>1</v>
-      </c>
-      <c r="D256">
-        <v>1</v>
-      </c>
-      <c r="E256">
-        <v>1</v>
-      </c>
-      <c r="F256">
-        <v>0</v>
-      </c>
-      <c r="G256" t="b">
-        <v>0</v>
-      </c>
-      <c r="H256">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8">
-      <c r="A257" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B257">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C257">
-        <v>1</v>
-      </c>
-      <c r="D257">
-        <v>1</v>
-      </c>
-      <c r="E257">
-        <v>1</v>
-      </c>
-      <c r="F257">
-        <v>0</v>
-      </c>
-      <c r="G257" t="b">
-        <v>0</v>
-      </c>
-      <c r="H257">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8">
-      <c r="A258" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B258">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C258">
-        <v>1</v>
-      </c>
-      <c r="D258">
-        <v>1</v>
-      </c>
-      <c r="E258">
-        <v>1</v>
-      </c>
-      <c r="F258">
-        <v>0</v>
-      </c>
-      <c r="G258" t="b">
-        <v>0</v>
-      </c>
-      <c r="H258">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8">
-      <c r="A259" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B259">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C259">
-        <v>1</v>
-      </c>
-      <c r="D259">
-        <v>1</v>
-      </c>
-      <c r="E259">
-        <v>1</v>
-      </c>
-      <c r="F259">
-        <v>0</v>
-      </c>
-      <c r="G259" t="b">
-        <v>0</v>
-      </c>
-      <c r="H259">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
-      <c r="A260" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B260">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C260">
-        <v>1</v>
-      </c>
-      <c r="D260">
-        <v>1</v>
-      </c>
-      <c r="E260">
-        <v>1</v>
-      </c>
-      <c r="F260">
-        <v>0</v>
-      </c>
-      <c r="G260" t="b">
-        <v>0</v>
-      </c>
-      <c r="H260">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8">
-      <c r="A261" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B261">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C261">
-        <v>1</v>
-      </c>
-      <c r="D261">
-        <v>1</v>
-      </c>
-      <c r="E261">
-        <v>1</v>
-      </c>
-      <c r="F261">
-        <v>0</v>
-      </c>
-      <c r="G261" t="b">
-        <v>0</v>
-      </c>
-      <c r="H261">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8">
-      <c r="A262" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B262">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C262">
-        <v>1</v>
-      </c>
-      <c r="D262">
-        <v>1</v>
-      </c>
-      <c r="E262">
-        <v>1</v>
-      </c>
-      <c r="F262">
-        <v>0</v>
-      </c>
-      <c r="G262" t="b">
-        <v>0</v>
-      </c>
-      <c r="H262">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8">
-      <c r="A263" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B263">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C263">
-        <v>1</v>
-      </c>
-      <c r="D263">
-        <v>1</v>
-      </c>
-      <c r="E263">
-        <v>1</v>
-      </c>
-      <c r="F263">
-        <v>0</v>
-      </c>
-      <c r="G263" t="b">
-        <v>0</v>
-      </c>
-      <c r="H263">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8">
-      <c r="A264" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B264">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C264">
-        <v>1</v>
-      </c>
-      <c r="D264">
-        <v>1</v>
-      </c>
-      <c r="E264">
-        <v>1</v>
-      </c>
-      <c r="F264">
-        <v>0</v>
-      </c>
-      <c r="G264" t="b">
-        <v>0</v>
-      </c>
-      <c r="H264">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
-      <c r="A265" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B265">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C265">
-        <v>1</v>
-      </c>
-      <c r="D265">
-        <v>1</v>
-      </c>
-      <c r="E265">
-        <v>1</v>
-      </c>
-      <c r="F265">
-        <v>0</v>
-      </c>
-      <c r="G265" t="b">
-        <v>0</v>
-      </c>
-      <c r="H265">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
-      <c r="A266" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B266">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C266">
-        <v>1</v>
-      </c>
-      <c r="D266">
-        <v>1</v>
-      </c>
-      <c r="E266">
-        <v>1</v>
-      </c>
-      <c r="F266">
-        <v>0</v>
-      </c>
-      <c r="G266" t="b">
-        <v>0</v>
-      </c>
-      <c r="H266">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8">
-      <c r="A267" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B267">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C267">
-        <v>1</v>
-      </c>
-      <c r="D267">
-        <v>1</v>
-      </c>
-      <c r="E267">
-        <v>1</v>
-      </c>
-      <c r="F267">
-        <v>0</v>
-      </c>
-      <c r="G267" t="b">
-        <v>0</v>
-      </c>
-      <c r="H267">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8">
-      <c r="A268" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B268">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C268">
-        <v>1</v>
-      </c>
-      <c r="D268">
-        <v>1</v>
-      </c>
-      <c r="E268">
-        <v>1</v>
-      </c>
-      <c r="F268">
-        <v>0</v>
-      </c>
-      <c r="G268" t="b">
-        <v>0</v>
-      </c>
-      <c r="H268">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8">
-      <c r="A269" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B269">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C269">
-        <v>1</v>
-      </c>
-      <c r="D269">
-        <v>1</v>
-      </c>
-      <c r="E269">
-        <v>1</v>
-      </c>
-      <c r="F269">
-        <v>0</v>
-      </c>
-      <c r="G269" t="b">
-        <v>0</v>
-      </c>
-      <c r="H269">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8">
-      <c r="A270" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B270">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C270">
-        <v>1</v>
-      </c>
-      <c r="D270">
-        <v>1</v>
-      </c>
-      <c r="E270">
-        <v>1</v>
-      </c>
-      <c r="F270">
-        <v>0</v>
-      </c>
-      <c r="G270" t="b">
-        <v>0</v>
-      </c>
-      <c r="H270">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8">
-      <c r="A271" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B271">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C271">
-        <v>1</v>
-      </c>
-      <c r="D271">
-        <v>1</v>
-      </c>
-      <c r="E271">
-        <v>1</v>
-      </c>
-      <c r="F271">
-        <v>0</v>
-      </c>
-      <c r="G271" t="b">
-        <v>0</v>
-      </c>
-      <c r="H271">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8">
-      <c r="A272" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B272">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C272">
-        <v>1</v>
-      </c>
-      <c r="D272">
-        <v>1</v>
-      </c>
-      <c r="E272">
-        <v>1</v>
-      </c>
-      <c r="F272">
-        <v>0</v>
-      </c>
-      <c r="G272" t="b">
-        <v>0</v>
-      </c>
-      <c r="H272">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
-      <c r="A273" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B273">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C273">
-        <v>1</v>
-      </c>
-      <c r="D273">
-        <v>1</v>
-      </c>
-      <c r="E273">
-        <v>1</v>
-      </c>
-      <c r="F273">
-        <v>0</v>
-      </c>
-      <c r="G273" t="b">
-        <v>0</v>
-      </c>
-      <c r="H273">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8">
-      <c r="A274" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B274">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C274">
-        <v>1</v>
-      </c>
-      <c r="D274">
-        <v>1</v>
-      </c>
-      <c r="E274">
-        <v>1</v>
-      </c>
-      <c r="F274">
-        <v>0</v>
-      </c>
-      <c r="G274" t="b">
-        <v>0</v>
-      </c>
-      <c r="H274">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
-      <c r="A275" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B275">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C275">
-        <v>1</v>
-      </c>
-      <c r="D275">
-        <v>1</v>
-      </c>
-      <c r="E275">
-        <v>1</v>
-      </c>
-      <c r="F275">
-        <v>0</v>
-      </c>
-      <c r="G275" t="b">
-        <v>0</v>
-      </c>
-      <c r="H275">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8">
-      <c r="A276" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B276">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C276">
-        <v>1</v>
-      </c>
-      <c r="D276">
-        <v>1</v>
-      </c>
-      <c r="E276">
-        <v>1</v>
-      </c>
-      <c r="F276">
-        <v>0</v>
-      </c>
-      <c r="G276" t="b">
-        <v>0</v>
-      </c>
-      <c r="H276">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8">
-      <c r="A277" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B277">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C277">
-        <v>1</v>
-      </c>
-      <c r="D277">
-        <v>1</v>
-      </c>
-      <c r="E277">
-        <v>1</v>
-      </c>
-      <c r="F277">
-        <v>0</v>
-      </c>
-      <c r="G277" t="b">
-        <v>0</v>
-      </c>
-      <c r="H277">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
-      <c r="A278" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B278">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C278">
-        <v>1</v>
-      </c>
-      <c r="D278">
-        <v>1</v>
-      </c>
-      <c r="E278">
-        <v>1</v>
-      </c>
-      <c r="F278">
-        <v>0</v>
-      </c>
-      <c r="G278" t="b">
-        <v>0</v>
-      </c>
-      <c r="H278">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8">
-      <c r="A279" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B279">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C279">
-        <v>1</v>
-      </c>
-      <c r="D279">
-        <v>1</v>
-      </c>
-      <c r="E279">
-        <v>1</v>
-      </c>
-      <c r="F279">
-        <v>0</v>
-      </c>
-      <c r="G279" t="b">
-        <v>0</v>
-      </c>
-      <c r="H279">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8">
-      <c r="A280" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B280">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C280">
-        <v>1</v>
-      </c>
-      <c r="D280">
-        <v>1</v>
-      </c>
-      <c r="E280">
-        <v>1</v>
-      </c>
-      <c r="F280">
-        <v>0</v>
-      </c>
-      <c r="G280" t="b">
-        <v>0</v>
-      </c>
-      <c r="H280">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8">
-      <c r="A281" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B281">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C281">
-        <v>1</v>
-      </c>
-      <c r="D281">
-        <v>1</v>
-      </c>
-      <c r="E281">
-        <v>1</v>
-      </c>
-      <c r="F281">
-        <v>0</v>
-      </c>
-      <c r="G281" t="b">
-        <v>0</v>
-      </c>
-      <c r="H281">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8">
-      <c r="A282" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B282">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C282">
-        <v>1</v>
-      </c>
-      <c r="D282">
-        <v>1</v>
-      </c>
-      <c r="E282">
-        <v>1</v>
-      </c>
-      <c r="F282">
-        <v>0</v>
-      </c>
-      <c r="G282" t="b">
-        <v>0</v>
-      </c>
-      <c r="H282">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8">
-      <c r="A283" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B283">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C283">
-        <v>1</v>
-      </c>
-      <c r="D283">
-        <v>1</v>
-      </c>
-      <c r="E283">
-        <v>1</v>
-      </c>
-      <c r="F283">
-        <v>0</v>
-      </c>
-      <c r="G283" t="b">
-        <v>0</v>
-      </c>
-      <c r="H283">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8">
-      <c r="A284" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B284">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C284">
-        <v>1</v>
-      </c>
-      <c r="D284">
-        <v>1</v>
-      </c>
-      <c r="E284">
-        <v>1</v>
-      </c>
-      <c r="F284">
-        <v>0</v>
-      </c>
-      <c r="G284" t="b">
-        <v>0</v>
-      </c>
-      <c r="H284">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8">
-      <c r="A285" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B285">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C285">
-        <v>1</v>
-      </c>
-      <c r="D285">
-        <v>1</v>
-      </c>
-      <c r="E285">
-        <v>1</v>
-      </c>
-      <c r="F285">
-        <v>0</v>
-      </c>
-      <c r="G285" t="b">
-        <v>0</v>
-      </c>
-      <c r="H285">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8">
-      <c r="A286" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B286">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C286">
-        <v>1</v>
-      </c>
-      <c r="D286">
-        <v>1</v>
-      </c>
-      <c r="E286">
-        <v>1</v>
-      </c>
-      <c r="F286">
-        <v>0</v>
-      </c>
-      <c r="G286" t="b">
-        <v>0</v>
-      </c>
-      <c r="H286">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8">
-      <c r="A287" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B287">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C287">
-        <v>1</v>
-      </c>
-      <c r="D287">
-        <v>1</v>
-      </c>
-      <c r="E287">
-        <v>1</v>
-      </c>
-      <c r="F287">
-        <v>0</v>
-      </c>
-      <c r="G287" t="b">
-        <v>0</v>
-      </c>
-      <c r="H287">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8">
-      <c r="A288" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B288">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C288">
-        <v>1</v>
-      </c>
-      <c r="D288">
-        <v>1</v>
-      </c>
-      <c r="E288">
-        <v>1</v>
-      </c>
-      <c r="F288">
-        <v>0</v>
-      </c>
-      <c r="G288" t="b">
-        <v>0</v>
-      </c>
-      <c r="H288">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8">
-      <c r="A289" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B289">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C289">
-        <v>1</v>
-      </c>
-      <c r="D289">
-        <v>1</v>
-      </c>
-      <c r="E289">
-        <v>1</v>
-      </c>
-      <c r="F289">
-        <v>0</v>
-      </c>
-      <c r="G289" t="b">
-        <v>0</v>
-      </c>
-      <c r="H289">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8">
-      <c r="A290" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B290">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C290">
-        <v>1</v>
-      </c>
-      <c r="D290">
-        <v>1</v>
-      </c>
-      <c r="E290">
-        <v>1</v>
-      </c>
-      <c r="F290">
-        <v>0</v>
-      </c>
-      <c r="G290" t="b">
-        <v>0</v>
-      </c>
-      <c r="H290">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8">
-      <c r="A291" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B291">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C291">
-        <v>1</v>
-      </c>
-      <c r="D291">
-        <v>1</v>
-      </c>
-      <c r="E291">
-        <v>1</v>
-      </c>
-      <c r="F291">
-        <v>0</v>
-      </c>
-      <c r="G291" t="b">
-        <v>0</v>
-      </c>
-      <c r="H291">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8">
-      <c r="A292" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B292">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C292">
-        <v>1</v>
-      </c>
-      <c r="D292">
-        <v>1</v>
-      </c>
-      <c r="E292">
-        <v>1</v>
-      </c>
-      <c r="F292">
-        <v>0</v>
-      </c>
-      <c r="G292" t="b">
-        <v>0</v>
-      </c>
-      <c r="H292">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8">
-      <c r="A293" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B293">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C293">
-        <v>1</v>
-      </c>
-      <c r="D293">
-        <v>1</v>
-      </c>
-      <c r="E293">
-        <v>1</v>
-      </c>
-      <c r="F293">
-        <v>0</v>
-      </c>
-      <c r="G293" t="b">
-        <v>0</v>
-      </c>
-      <c r="H293">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8">
-      <c r="A294" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B294">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C294">
-        <v>1</v>
-      </c>
-      <c r="D294">
-        <v>1</v>
-      </c>
-      <c r="E294">
-        <v>1</v>
-      </c>
-      <c r="F294">
-        <v>0</v>
-      </c>
-      <c r="G294" t="b">
-        <v>0</v>
-      </c>
-      <c r="H294">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8">
-      <c r="A295" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B295">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C295">
-        <v>1</v>
-      </c>
-      <c r="D295">
-        <v>1</v>
-      </c>
-      <c r="E295">
-        <v>1</v>
-      </c>
-      <c r="F295">
-        <v>0</v>
-      </c>
-      <c r="G295" t="b">
-        <v>0</v>
-      </c>
-      <c r="H295">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8">
-      <c r="A296" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B296">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C296">
-        <v>1</v>
-      </c>
-      <c r="D296">
-        <v>1</v>
-      </c>
-      <c r="E296">
-        <v>1</v>
-      </c>
-      <c r="F296">
-        <v>0</v>
-      </c>
-      <c r="G296" t="b">
-        <v>0</v>
-      </c>
-      <c r="H296">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8">
-      <c r="A297" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B297">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C297">
-        <v>1</v>
-      </c>
-      <c r="D297">
-        <v>1</v>
-      </c>
-      <c r="E297">
-        <v>1</v>
-      </c>
-      <c r="F297">
-        <v>0</v>
-      </c>
-      <c r="G297" t="b">
-        <v>0</v>
-      </c>
-      <c r="H297">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8">
-      <c r="A298" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B298">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C298">
-        <v>1</v>
-      </c>
-      <c r="D298">
-        <v>1</v>
-      </c>
-      <c r="E298">
-        <v>1</v>
-      </c>
-      <c r="F298">
-        <v>0</v>
-      </c>
-      <c r="G298" t="b">
-        <v>0</v>
-      </c>
-      <c r="H298">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8">
-      <c r="A299" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B299">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C299">
-        <v>1</v>
-      </c>
-      <c r="D299">
-        <v>1</v>
-      </c>
-      <c r="E299">
-        <v>1</v>
-      </c>
-      <c r="F299">
-        <v>0</v>
-      </c>
-      <c r="G299" t="b">
-        <v>0</v>
-      </c>
-      <c r="H299">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8">
-      <c r="A300" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B300">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C300">
-        <v>1</v>
-      </c>
-      <c r="D300">
-        <v>1</v>
-      </c>
-      <c r="E300">
-        <v>1</v>
-      </c>
-      <c r="F300">
-        <v>0</v>
-      </c>
-      <c r="G300" t="b">
-        <v>0</v>
-      </c>
-      <c r="H300">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8">
-      <c r="A301" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B301">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C301">
-        <v>1</v>
-      </c>
-      <c r="D301">
-        <v>1</v>
-      </c>
-      <c r="E301">
-        <v>1</v>
-      </c>
-      <c r="F301">
-        <v>0</v>
-      </c>
-      <c r="G301" t="b">
-        <v>0</v>
-      </c>
-      <c r="H301">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8">
-      <c r="A302" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B302">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C302">
-        <v>1</v>
-      </c>
-      <c r="D302">
-        <v>1</v>
-      </c>
-      <c r="E302">
-        <v>1</v>
-      </c>
-      <c r="F302">
-        <v>0</v>
-      </c>
-      <c r="G302" t="b">
-        <v>0</v>
-      </c>
-      <c r="H302">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8">
-      <c r="A303" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B303">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C303">
-        <v>1</v>
-      </c>
-      <c r="D303">
-        <v>1</v>
-      </c>
-      <c r="E303">
-        <v>1</v>
-      </c>
-      <c r="F303">
-        <v>0</v>
-      </c>
-      <c r="G303" t="b">
-        <v>0</v>
-      </c>
-      <c r="H303">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8">
-      <c r="A304" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B304">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C304">
-        <v>1</v>
-      </c>
-      <c r="D304">
-        <v>1</v>
-      </c>
-      <c r="E304">
-        <v>1</v>
-      </c>
-      <c r="F304">
-        <v>0</v>
-      </c>
-      <c r="G304" t="b">
-        <v>0</v>
-      </c>
-      <c r="H304">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8">
-      <c r="A305" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B305">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C305">
-        <v>1</v>
-      </c>
-      <c r="D305">
-        <v>1</v>
-      </c>
-      <c r="E305">
-        <v>1</v>
-      </c>
-      <c r="F305">
-        <v>0</v>
-      </c>
-      <c r="G305" t="b">
-        <v>0</v>
-      </c>
-      <c r="H305">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8">
-      <c r="A306" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B306">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C306">
-        <v>1</v>
-      </c>
-      <c r="D306">
-        <v>1</v>
-      </c>
-      <c r="E306">
-        <v>1</v>
-      </c>
-      <c r="F306">
-        <v>0</v>
-      </c>
-      <c r="G306" t="b">
-        <v>0</v>
-      </c>
-      <c r="H306">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8">
-      <c r="A307" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B307">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C307">
-        <v>1</v>
-      </c>
-      <c r="D307">
-        <v>1</v>
-      </c>
-      <c r="E307">
-        <v>1</v>
-      </c>
-      <c r="F307">
-        <v>0</v>
-      </c>
-      <c r="G307" t="b">
-        <v>0</v>
-      </c>
-      <c r="H307">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8">
-      <c r="A308" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B308">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C308">
-        <v>1</v>
-      </c>
-      <c r="D308">
-        <v>1</v>
-      </c>
-      <c r="E308">
-        <v>1</v>
-      </c>
-      <c r="F308">
-        <v>0</v>
-      </c>
-      <c r="G308" t="b">
-        <v>0</v>
-      </c>
-      <c r="H308">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8">
-      <c r="A309" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B309">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C309">
-        <v>1</v>
-      </c>
-      <c r="D309">
-        <v>1</v>
-      </c>
-      <c r="E309">
-        <v>1</v>
-      </c>
-      <c r="F309">
-        <v>0</v>
-      </c>
-      <c r="G309" t="b">
-        <v>0</v>
-      </c>
-      <c r="H309">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8">
-      <c r="A310" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B310">
-        <v>0.0006613756613756613</v>
-      </c>
-      <c r="C310">
-        <v>1</v>
-      </c>
-      <c r="D310">
-        <v>1</v>
-      </c>
-      <c r="E310">
-        <v>1</v>
-      </c>
-      <c r="F310">
-        <v>0</v>
-      </c>
-      <c r="G310" t="b">
-        <v>0</v>
-      </c>
-      <c r="H310">
         <v>1</v>
       </c>
     </row>
